--- a/final_report.xlsx
+++ b/final_report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Programming\prolongation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E3BD43-602C-4B01-A288-4A7A84B8F0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA1E2C5-9D1D-42BF-A642-671B80D208ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -86,10 +86,10 @@
     <t>Названия строк</t>
   </si>
   <si>
-    <t>Сумма по полю Значение</t>
+    <t>Названия столбцов</t>
   </si>
   <si>
-    <t>Названия столбцов</t>
+    <t>Отчет</t>
   </si>
 </sst>
 </file>
@@ -336,13 +336,34 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -374,18 +395,11 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3169,7 +3183,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0430CD5-4B10-4084-9053-94B95B3A4539}" name="Сводная таблица1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0430CD5-4B10-4084-9053-94B95B3A4539}" name="Основная сводная таблица" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:AM12" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -3373,10 +3387,10 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Сумма по полю Значение" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Отчет" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="5">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="2">
@@ -3400,7 +3414,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6BCC9A2-D56C-46A7-AB91-CF69F79B81C5}" name="Пролонгация" displayName="Пролонгация" ref="B1:E358" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="2" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6BCC9A2-D56C-46A7-AB91-CF69F79B81C5}" name="Пролонгация" displayName="Пролонгация" ref="B1:E358" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="B1:E358" xr:uid="{D6BCC9A2-D56C-46A7-AB91-CF69F79B81C5}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{45C0FB0A-4CBE-423D-8DA6-13ADB4CCCED0}" name="Менеджер"/>
@@ -3736,7 +3750,7 @@
   <dimension ref="A3:AM12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3804,10 +3818,10 @@
   <sheetData>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
